--- a/Datenblatt.xlsx
+++ b/Datenblatt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\matlab-berechnungen\konstruktionsbeleg\kalander\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benniS\Documents\Uni\5. Semester\konstruktionsbeleg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5712A0-E6D3-4E18-BE70-84EEAD8AA473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E13C203-DD0C-402E-81E7-0F28D6997932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="870" windowWidth="26835" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eingabe" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="299">
   <si>
     <t>Variante:</t>
   </si>
@@ -2159,13 +2156,22 @@
       </rPr>
       <t>R</t>
     </r>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>benjamin_maximilian.schmidt@mailbox.tu-dresden.de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2230,6 +2236,14 @@
       <color theme="1"/>
       <name val="Noto Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2630,41 +2644,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2676,16 +2675,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2697,7 +2687,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2706,13 +2696,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2720,9 +2704,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0" hidden="1"/>
@@ -2742,29 +2723,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2778,15 +2750,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2794,21 +2757,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -2816,7 +2772,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2825,18 +2781,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2880,40 +2824,116 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2929,418 +2949,18 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -3492,153 +3112,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFEF7D00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4112,4646 +3585,4571 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="10" customWidth="1"/>
-    <col min="4" max="5" width="6.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="10" customWidth="1"/>
-    <col min="9" max="10" width="6.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="10" customWidth="1"/>
-    <col min="14" max="15" width="6.28515625" style="10" customWidth="1"/>
-    <col min="16" max="18" width="11.42578125" style="10"/>
-    <col min="19" max="19" width="24.42578125" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="11.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="6" customWidth="1"/>
+    <col min="9" max="10" width="6.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="6" customWidth="1"/>
+    <col min="14" max="15" width="6.28515625" style="6" customWidth="1"/>
+    <col min="16" max="18" width="11.42578125" style="6"/>
+    <col min="19" max="19" width="24.42578125" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="P3" s="10" t="s">
+      <c r="G3" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="P3" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20" t="s">
+      <c r="S3" s="12"/>
+      <c r="T3" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="14" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26" t="s">
+      <c r="B4" s="15">
+        <v>5070918</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="F4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="P4" s="10" t="s">
+      <c r="G4" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="89"/>
+      <c r="P4" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="6">
         <f>SUM(D42:D47)+SUM(I42:I47)+SUM(N42:N47)+SUM(D56:D61)+SUM(I56:I61)+SUM(N56:N61)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="19">
         <f>SUM(E42:E47)+SUM(J42:J47)+SUM(O42:O47)+SUM(E56:E61)+SUM(J56:J61)+SUM(O56:O61)</f>
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="6">
         <f>SUM(D84:D99)+SUM(N84:N99)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="20">
         <f>SUM(E84:E99)+SUM(O84:O99)</f>
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="31" t="str">
+      <c r="B6" s="21">
         <f>IF(OR(LEFT($G$3,1)={"A";"Ä";"B"}),1,IF(OR(LEFT($G$3,1)={"C";"D";"E"}),2,IF(OR(LEFT($G$3,1)={"F";"G";"H"}),3,IF(OR(LEFT($G$3,1)={"I";"J";"K"}),4,IF(OR(LEFT($G$3,1)={"L";"M";"N"}),5,IF(OR(LEFT($G$3,1)={"O";"Ö";"P"}),6,IF(OR(LEFT($G$3,1)={"Q";"R";"S"}),7,IF(OR(LEFT($G$3,1)={"T";"U";"Ü";"V"}),8,IF(OR(LEFT($G$3,1)={"W";"X";"Y";"Z"}),9,"x")))))))))</f>
-        <v>x</v>
-      </c>
-      <c r="C6" s="31" t="str">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
         <f>IF(OR(MID($G$3,2,1)={"A";"Ä";"B"}),1,IF(OR(MID($G$3,2,1)={"C";"D";"E"}),2,IF(OR(MID($G$3,2,1)={"F";"G";"H"}),3,IF(OR(MID($G$3,2,1)={"I";"J";"K"}),4,IF(OR(MID($G$3,2,1)={"L";"M";"N"}),5,IF(OR(MID($G$3,2,1)={"O";"Ö";"P"}),6,IF(OR(MID($G$3,2,1)={"Q";"R";"S"}),7,IF(OR(MID($G$3,2,1)={"T";"U";"Ü";"V"}),8,IF(OR(MID($G$3,2,1)={"W";"X";"Y";"Z"}),9,"x")))))))))</f>
-        <v>x</v>
-      </c>
-      <c r="D6" s="31" t="str">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21">
         <f>IF(OR(LEFT($B$3,1)={"A";"Ä";"B"}),1,IF(OR(LEFT($B$3,1)={"C";"D";"E"}),2,IF(OR(LEFT($B$3,1)={"F";"G";"H"}),3,IF(OR(LEFT($B$3,1)={"I";"J";"K"}),4,IF(OR(LEFT($B$3,1)={"L";"M";"N"}),5,IF(OR(LEFT($B$3,1)={"O";"Ö";"P"}),6,IF(OR(LEFT($B$3,1)={"Q";"R";"S"}),7,IF(OR(LEFT($B$3,1)={"T";"U";"Ü";"V"}),8,IF(OR(LEFT($B$3,1)={"W";"X";"Y";"Z"}),9,"x")))))))))</f>
-        <v>x</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="S6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="S6" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="6">
         <f>SUM(D127:D141)+SUM(I127:I141)+SUM(N127:N141)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="20">
         <f>SUM(E127:E141)+SUM(J127:J141)+SUM(O127:O141)</f>
         <v>25.5</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="S7" s="32" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="S7" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="23">
         <f>D150+N150+SUM(D173:D180)+D185+I185+N185</f>
         <v>0</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="24">
         <f>E150+O150+SUM(E173:E180)+E185+J185+O185</f>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="28"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="38" t="str" cm="1">
+      <c r="B9" s="28" cm="1">
         <f t="array" ref="B9">IF(OR(LEFT($G$3,1)={"A";"Ä";"B"}),30,IF(OR(LEFT($G$3,1)={"C";"D";"E"}),40,IF(OR(LEFT($G$3,1)={"F";"G";"H"}),50,IF(OR(LEFT($G$3,1)={"I";"J";"K"}),60,IF(OR(LEFT($G$3,1)={"L";"M";"N"}),70,IF(OR(LEFT($G$3,1)={"O";"Ö";"P"}),65,IF(OR(LEFT($G$3,1)={"Q";"R";"S"}),55,IF(OR(LEFT($G$3,1)={"T";"U";"Ü";"V"}),45,IF(OR(LEFT($G$3,1)={"W";"X";"Y";"Z"}),35,"x")))))))))</f>
-        <v>x</v>
-      </c>
-      <c r="C9" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="T9" s="25">
+      <c r="T9" s="6">
         <f>CEILING(SUM(T4:T7)*35/SUM(U4:U7),0.5)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="20">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="41" t="str" cm="1">
+      <c r="B10" s="30" cm="1">
         <f t="array" ref="B10">IF(OR(MID($G$3,2,1)={"A";"Ä";"B"}),120,IF(OR(MID($G$3,2,1)={"C";"D";"E"}),130,IF(OR(MID($G$3,2,1)={"F";"G";"H"}),140,IF(OR(MID($G$3,2,1)={"I";"J";"K"}),150,IF(OR(MID($G$3,2,1)={"L";"M";"N"}),160,IF(OR(MID($G$3,2,1)={"O";"Ö";"P"}),155,IF(OR(MID($G$3,2,1)={"Q";"R";"S"}),145,IF(OR(MID($G$3,2,1)={"T";"U";"Ü";"V"}),135,IF(OR(MID($G$3,2,1)={"W";"X";"Y";"Z"}),120,"x")))))))))</f>
-        <v>x</v>
-      </c>
-      <c r="C10" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="T10" s="25">
+      <c r="T10" s="6">
         <v>0</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="41" t="str" cm="1">
+      <c r="B11" s="30" cm="1">
         <f t="array" ref="B11">IF(OR(MID($G$3,2,1)={"A";"Ä";"B"}),3,IF(OR(MID($G$3,2,1)={"C";"D";"E"}),4,IF(OR(MID($G$3,2,1)={"F";"G";"H"}),5,IF(OR(MID($G$3,2,1)={"I";"J";"K"}),6,IF(OR(MID($G$3,2,1)={"L";"M";"N"}),7,IF(OR(MID($G$3,2,1)={"O";"Ö";"P"}),6.5,IF(OR(MID($G$3,2,1)={"Q";"R";"S"}),5.5,IF(OR(MID($G$3,2,1)={"T";"U";"Ü";"V"}),4.5,IF(OR(MID($G$3,2,1)={"W";"X";"Y";"Z"}),3.5,"x")))))))))</f>
-        <v>x</v>
-      </c>
-      <c r="C11" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="31"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="29"/>
+      <c r="K11" s="21"/>
+      <c r="S11" s="17"/>
+      <c r="U11" s="20"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="43" t="str" cm="1">
+      <c r="B12" s="31" cm="1">
         <f t="array" ref="B12">IF(OR(LEFT($B$3,1)={"A";"Ä";"B"}),2,IF(OR(LEFT($B$3,1)={"C";"D";"E"}),2.5,IF(OR(LEFT($B$3,1)={"F";"G";"H"}),3,IF(OR(LEFT($B$3,1)={"I";"J";"K"}),3.5,IF(OR(LEFT($B$3,1)={"L";"M";"N"}),4,IF(OR(LEFT($B$3,1)={"O";"Ö";"P"}),3.75,IF(OR(LEFT($B$3,1)={"Q";"R";"S"}),3.25,IF(OR(LEFT($B$3,1)={"T";"U";"Ü";"V"}),2.75,IF(OR(LEFT($B$3,1)={"W";"X";"Y";"Z"}),2.25,"x")))))))))</f>
-        <v>x</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="31"/>
-      <c r="S12" s="32" t="s">
+        <v>3.25</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="K12" s="21"/>
+      <c r="S12" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="23">
         <f>T9+T10</f>
         <v>0</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="37" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="39" t="s">
+      <c r="L15" s="32"/>
+      <c r="M15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="10" t="s">
+      <c r="N15" s="17"/>
+      <c r="P15" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="40" t="s">
+      <c r="G16" s="39"/>
+      <c r="H16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="56" t="s">
+      <c r="I16" s="17"/>
+      <c r="K16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="52"/>
-      <c r="M16" s="44" t="s">
+      <c r="L16" s="36"/>
+      <c r="M16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="26" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="44" t="s">
+      <c r="G17" s="36"/>
+      <c r="H17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="58"/>
+      <c r="I17" s="17"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="34" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="63" t="s">
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="63" t="s">
+      <c r="G35" s="82"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="65"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="44"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="70" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K36" s="70" t="s">
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="66"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="O36" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P36" s="10" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="O36" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="74" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J37" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K37" s="74" t="s">
+      <c r="G37" s="39"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="55"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O37" s="71" t="s">
+      <c r="L37" s="39"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="42" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="76" t="s">
+      <c r="D38" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="42" t="s">
+      <c r="G38" s="39"/>
+      <c r="H38" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="I38" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J38" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K38" s="76" t="s">
+      <c r="I38" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K38" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="L38" s="55"/>
-      <c r="M38" s="42" t="s">
+      <c r="L38" s="39"/>
+      <c r="M38" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="N38" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O38" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P38" s="10" t="s">
+      <c r="N38" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O38" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="42" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="76" t="s">
+      <c r="D39" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="42" t="s">
+      <c r="G39" s="39"/>
+      <c r="H39" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J39" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K39" s="76" t="s">
+      <c r="I39" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K39" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L39" s="55"/>
-      <c r="M39" s="42" t="s">
+      <c r="L39" s="39"/>
+      <c r="M39" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N39" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O39" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P39" s="10" t="s">
+      <c r="N39" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O39" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="40" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="54" t="s">
+      <c r="D40" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="40" t="s">
+      <c r="G40" s="39"/>
+      <c r="H40" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J40" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40" s="54" t="s">
+      <c r="I40" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="L40" s="55"/>
-      <c r="M40" s="40" t="s">
+      <c r="L40" s="39"/>
+      <c r="M40" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N40" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O40" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P40" s="10" t="s">
+      <c r="N40" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O40" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="40" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="54" t="s">
+      <c r="D41" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="40" t="s">
+      <c r="G41" s="39"/>
+      <c r="H41" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J41" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K41" s="54" t="s">
+      <c r="I41" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="L41" s="55"/>
-      <c r="M41" s="42" t="s">
+      <c r="L41" s="39"/>
+      <c r="M41" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N41" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O41" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P41" s="10" t="s">
+      <c r="N41" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O41" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="40" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="69">
+      <c r="D42" s="52"/>
+      <c r="E42" s="48">
         <v>0.5</v>
       </c>
-      <c r="F42" s="78" t="s">
+      <c r="F42" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="40" t="s">
+      <c r="G42" s="39"/>
+      <c r="H42" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="73"/>
-      <c r="J42" s="69">
+      <c r="I42" s="52"/>
+      <c r="J42" s="48">
         <v>0.5</v>
       </c>
-      <c r="K42" s="78" t="s">
+      <c r="K42" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="L42" s="55"/>
-      <c r="M42" s="42" t="s">
+      <c r="L42" s="39"/>
+      <c r="M42" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="73"/>
-      <c r="O42" s="71">
+      <c r="N42" s="52"/>
+      <c r="O42" s="50">
         <v>0.5</v>
       </c>
-      <c r="P42" s="10" t="s">
+      <c r="P42" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="69">
+      <c r="B43" s="39"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="48">
         <v>0.5</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F43" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="69">
+      <c r="G43" s="39"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="48">
         <v>0.5</v>
       </c>
-      <c r="K43" s="78" t="s">
+      <c r="K43" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="L43" s="55"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="71">
+      <c r="L43" s="39"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="50">
         <v>0.5</v>
       </c>
-      <c r="P43" s="10" t="s">
+      <c r="P43" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="69">
+      <c r="B44" s="39"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="48">
         <v>0.25</v>
       </c>
-      <c r="F44" s="78" t="s">
+      <c r="F44" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="69">
+      <c r="G44" s="39"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="48">
         <v>0.25</v>
       </c>
-      <c r="K44" s="78" t="s">
+      <c r="K44" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="55"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="71">
+      <c r="L44" s="39"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="50">
         <v>0.25</v>
       </c>
-      <c r="P44" s="10" t="s">
+      <c r="P44" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="69">
+      <c r="B45" s="39"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="48">
         <v>0.25</v>
       </c>
-      <c r="F45" s="78" t="s">
+      <c r="F45" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="55"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="69">
+      <c r="G45" s="39"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="48">
         <v>0.25</v>
       </c>
-      <c r="K45" s="78" t="s">
+      <c r="K45" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="55"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="71">
+      <c r="L45" s="39"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="50">
         <v>0.25</v>
       </c>
-      <c r="P45" s="10" t="s">
+      <c r="P45" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="69">
+      <c r="B46" s="39"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="48">
         <v>1</v>
       </c>
-      <c r="F46" s="79" t="s">
+      <c r="F46" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="G46" s="75"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="69">
+      <c r="G46" s="39"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="48">
         <v>1</v>
       </c>
-      <c r="K46" s="80" t="s">
+      <c r="K46" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="L46" s="75"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="71">
+      <c r="L46" s="39"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="50">
         <v>1</v>
       </c>
-      <c r="P46" s="10" t="s">
+      <c r="P46" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="83">
+      <c r="D47" s="18"/>
+      <c r="E47" s="59">
         <v>1</v>
       </c>
-      <c r="F47" s="81" t="s">
+      <c r="F47" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="22" t="s">
+      <c r="G47" s="36"/>
+      <c r="H47" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="83">
+      <c r="I47" s="18"/>
+      <c r="J47" s="59">
         <v>1</v>
       </c>
-      <c r="K47" s="84" t="s">
+      <c r="K47" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="L47" s="52"/>
-      <c r="M47" s="22" t="s">
+      <c r="L47" s="36"/>
+      <c r="M47" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N47" s="26"/>
-      <c r="O47" s="85">
+      <c r="N47" s="18"/>
+      <c r="O47" s="61">
         <v>1</v>
       </c>
-      <c r="P47" s="10" t="s">
+      <c r="P47" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="O48" s="29"/>
+      <c r="O48" s="20"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="89" t="s">
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="86"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="89" t="s">
+      <c r="G49" s="85"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="L49" s="86"/>
-      <c r="M49" s="90"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="88"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="63"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="70" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K50" s="70" t="s">
+      <c r="G50" s="45"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K50" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="66"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="O50" s="71" t="s">
+      <c r="L50" s="45"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="O50" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" s="74" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="55"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J51" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K51" s="74" t="s">
+      <c r="G51" s="39"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K51" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="55"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O51" s="71" t="s">
+      <c r="L51" s="39"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O51" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="42" t="s">
+      <c r="B52" s="39"/>
+      <c r="C52" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D52" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="76" t="s">
+      <c r="D52" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G52" s="55"/>
-      <c r="H52" s="42" t="s">
+      <c r="G52" s="39"/>
+      <c r="H52" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="I52" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J52" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K52" s="76" t="s">
+      <c r="I52" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J52" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K52" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="L52" s="55"/>
-      <c r="M52" s="42" t="s">
+      <c r="L52" s="39"/>
+      <c r="M52" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="N52" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O52" s="71" t="s">
+      <c r="N52" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O52" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="42" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="76" t="s">
+      <c r="D53" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="55"/>
-      <c r="H53" s="42" t="s">
+      <c r="G53" s="39"/>
+      <c r="H53" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I53" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J53" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K53" s="76" t="s">
+      <c r="I53" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J53" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K53" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L53" s="55"/>
-      <c r="M53" s="42" t="s">
+      <c r="L53" s="39"/>
+      <c r="M53" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N53" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O53" s="71" t="s">
+      <c r="N53" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O53" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="40" t="s">
+      <c r="B54" s="39"/>
+      <c r="C54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="54" t="s">
+      <c r="D54" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="G54" s="55"/>
-      <c r="H54" s="40" t="s">
+      <c r="G54" s="39"/>
+      <c r="H54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J54" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K54" s="54" t="s">
+      <c r="I54" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J54" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K54" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="L54" s="55"/>
-      <c r="M54" s="40" t="s">
+      <c r="L54" s="39"/>
+      <c r="M54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N54" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O54" s="71" t="s">
+      <c r="N54" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O54" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="40" t="s">
+      <c r="B55" s="39"/>
+      <c r="C55" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="54" t="s">
+      <c r="D55" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="G55" s="55"/>
-      <c r="H55" s="40" t="s">
+      <c r="G55" s="39"/>
+      <c r="H55" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J55" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="K55" s="54" t="s">
+      <c r="I55" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J55" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K55" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="L55" s="55"/>
-      <c r="M55" s="42" t="s">
+      <c r="L55" s="39"/>
+      <c r="M55" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N55" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O55" s="71" t="s">
+      <c r="N55" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O55" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A56" s="77" t="s">
+      <c r="A56" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="40" t="s">
+      <c r="B56" s="39"/>
+      <c r="C56" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="69">
+      <c r="D56" s="52"/>
+      <c r="E56" s="48">
         <v>0.5</v>
       </c>
-      <c r="F56" s="78" t="s">
+      <c r="F56" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="G56" s="55"/>
-      <c r="H56" s="40" t="s">
+      <c r="G56" s="39"/>
+      <c r="H56" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="73"/>
-      <c r="J56" s="69">
+      <c r="I56" s="52"/>
+      <c r="J56" s="48">
         <v>0.5</v>
       </c>
-      <c r="K56" s="78" t="s">
+      <c r="K56" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="L56" s="55"/>
-      <c r="M56" s="42" t="s">
+      <c r="L56" s="39"/>
+      <c r="M56" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N56" s="73"/>
-      <c r="O56" s="71">
+      <c r="N56" s="52"/>
+      <c r="O56" s="50">
         <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="69">
+      <c r="B57" s="39"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="48">
         <v>0.5</v>
       </c>
-      <c r="F57" s="78" t="s">
+      <c r="F57" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="G57" s="55"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="69">
+      <c r="G57" s="39"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="48">
         <v>0.5</v>
       </c>
-      <c r="K57" s="78" t="s">
+      <c r="K57" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="L57" s="55"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="73"/>
-      <c r="O57" s="71">
+      <c r="L57" s="39"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="50">
         <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A58" s="77" t="s">
+      <c r="A58" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="69">
+      <c r="B58" s="39"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="48">
         <v>0.25</v>
       </c>
-      <c r="F58" s="78" t="s">
+      <c r="F58" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="55"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="69">
+      <c r="G58" s="39"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="48">
         <v>0.25</v>
       </c>
-      <c r="K58" s="78" t="s">
+      <c r="K58" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L58" s="55"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="71">
+      <c r="L58" s="39"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="50">
         <v>0.25</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="69">
+      <c r="B59" s="39"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="48">
         <v>0.25</v>
       </c>
-      <c r="F59" s="78" t="s">
+      <c r="F59" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="55"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="69">
+      <c r="G59" s="39"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="48">
         <v>0.25</v>
       </c>
-      <c r="K59" s="78" t="s">
+      <c r="K59" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="55"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="71">
+      <c r="L59" s="39"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="50">
         <v>0.25</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A60" s="79" t="s">
+      <c r="A60" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="75"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="69">
+      <c r="B60" s="39"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="48">
         <v>1</v>
       </c>
-      <c r="F60" s="79" t="s">
+      <c r="F60" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="G60" s="75"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="69">
+      <c r="G60" s="39"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="48">
         <v>1</v>
       </c>
-      <c r="K60" s="79" t="s">
+      <c r="K60" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="L60" s="75"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="71">
+      <c r="L60" s="39"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="B61" s="82"/>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="36"/>
+      <c r="C61" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="83">
+      <c r="D61" s="18"/>
+      <c r="E61" s="59">
         <v>1</v>
       </c>
-      <c r="F61" s="81" t="s">
+      <c r="F61" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="G61" s="52"/>
-      <c r="H61" s="27" t="s">
+      <c r="G61" s="36"/>
+      <c r="H61" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I61" s="26"/>
-      <c r="J61" s="83">
+      <c r="I61" s="18"/>
+      <c r="J61" s="59">
         <v>1</v>
       </c>
-      <c r="K61" s="81" t="s">
+      <c r="K61" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="L61" s="52"/>
-      <c r="M61" s="22" t="s">
+      <c r="L61" s="36"/>
+      <c r="M61" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N61" s="26"/>
-      <c r="O61" s="85">
+      <c r="N61" s="18"/>
+      <c r="O61" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="93"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="93"/>
-      <c r="H67" s="93"/>
-      <c r="I67" s="93"/>
-      <c r="J67" s="93"/>
-      <c r="K67" s="93"/>
-      <c r="L67" s="93"/>
-      <c r="M67" s="93"/>
-      <c r="N67" s="93"/>
-      <c r="O67" s="93"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14" t="s">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="65"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="44"/>
     </row>
     <row r="69" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="94" t="s">
+      <c r="A69" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="95"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K69" s="94" t="s">
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K69" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="L69" s="95"/>
-      <c r="M69" s="91"/>
-      <c r="N69" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="O69" s="71" t="s">
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="O69" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F70" s="18"/>
-      <c r="K70" s="40" t="s">
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K70" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O70" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P70" s="10" t="s">
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O70" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P70" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="18"/>
-      <c r="K71" s="40" t="s">
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K71" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O71" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P71" s="10" t="s">
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O71" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P71" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="18"/>
-      <c r="K72" s="40" t="s">
+      <c r="D72" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K72" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40" t="s">
+      <c r="L72" s="29"/>
+      <c r="M72" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O72" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P72" s="10" t="s">
+      <c r="N72" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O72" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P72" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73" s="18"/>
-      <c r="K73" s="40" t="s">
+      <c r="D73" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K73" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40" t="s">
+      <c r="L73" s="29"/>
+      <c r="M73" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N73" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O73" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P73" s="10" t="s">
+      <c r="N73" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O73" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" s="18"/>
-      <c r="K74" s="40" t="s">
+      <c r="D74" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K74" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40" t="s">
+      <c r="L74" s="29"/>
+      <c r="M74" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N74" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O74" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P74" s="10" t="s">
+      <c r="N74" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O74" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P74" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="18"/>
-      <c r="K75" s="40" t="s">
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K75" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O75" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P75" s="10" t="s">
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O75" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P75" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="18"/>
-      <c r="K76" s="40" t="s">
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K76" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O76" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P76" s="10" t="s">
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O76" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P76" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40" t="s">
+      <c r="B77" s="29"/>
+      <c r="C77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77" s="18"/>
-      <c r="K77" s="40" t="s">
+      <c r="D77" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40" t="s">
+      <c r="L77" s="29"/>
+      <c r="M77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N77" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O77" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P77" s="10" t="s">
+      <c r="N77" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O77" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P77" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40" t="s">
+      <c r="B78" s="29"/>
+      <c r="C78" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="18"/>
-      <c r="K78" s="40" t="s">
+      <c r="D78" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K78" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40" t="s">
+      <c r="L78" s="29"/>
+      <c r="M78" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N78" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O78" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P78" s="10" t="s">
+      <c r="N78" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O78" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P78" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="18"/>
-      <c r="K79" s="42" t="s">
+      <c r="D79" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40" t="s">
+      <c r="L79" s="29"/>
+      <c r="M79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N79" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O79" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P79" s="10" t="s">
+      <c r="N79" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O79" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P79" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="18"/>
-      <c r="K80" s="40" t="s">
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K80" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O80" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P80" s="10" t="s">
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O80" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P80" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="40" t="s">
+      <c r="A81" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" s="18"/>
-      <c r="K81" s="40" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K81" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O81" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P81" s="10" t="s">
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O81" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P81" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" s="18"/>
-      <c r="K82" s="40" t="s">
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K82" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O82" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P82" s="10" t="s">
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O82" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P82" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="18"/>
-      <c r="K83" s="40" t="s">
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K83" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O83" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P83" s="10" t="s">
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O83" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P83" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A84" s="96" t="s">
+      <c r="A84" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="B84" s="97"/>
-      <c r="C84" s="97"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="71">
+      <c r="B84" s="68"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="50">
         <v>0.5</v>
       </c>
-      <c r="F84" s="18"/>
-      <c r="K84" s="96" t="s">
+      <c r="K84" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="L84" s="97"/>
-      <c r="M84" s="97"/>
-      <c r="N84" s="73"/>
-      <c r="O84" s="71">
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="52"/>
+      <c r="O84" s="50">
         <v>0.5</v>
       </c>
-      <c r="P84" s="10" t="s">
+      <c r="P84" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A85" s="77" t="s">
+      <c r="A85" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40" t="s">
+      <c r="B85" s="29"/>
+      <c r="C85" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="73"/>
-      <c r="E85" s="71">
+      <c r="D85" s="52"/>
+      <c r="E85" s="50">
         <v>0.5</v>
       </c>
-      <c r="F85" s="18"/>
-      <c r="K85" s="77" t="s">
+      <c r="K85" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="L85" s="40"/>
-      <c r="M85" s="40" t="s">
+      <c r="L85" s="29"/>
+      <c r="M85" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N85" s="73"/>
-      <c r="O85" s="71">
+      <c r="N85" s="52"/>
+      <c r="O85" s="50">
         <v>0.5</v>
       </c>
-      <c r="P85" s="10" t="s">
+      <c r="P85" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A86" s="77" t="s">
+      <c r="A86" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="73"/>
-      <c r="E86" s="71">
+      <c r="D86" s="52"/>
+      <c r="E86" s="50">
         <v>0.5</v>
       </c>
-      <c r="F86" s="18"/>
-      <c r="K86" s="77" t="s">
+      <c r="K86" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40" t="s">
+      <c r="L86" s="29"/>
+      <c r="M86" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N86" s="73"/>
-      <c r="O86" s="71">
+      <c r="N86" s="52"/>
+      <c r="O86" s="50">
         <v>0.5</v>
       </c>
-      <c r="P86" s="10" t="s">
+      <c r="P86" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A87" s="77" t="s">
+      <c r="A87" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="73"/>
-      <c r="E87" s="71">
+      <c r="D87" s="52"/>
+      <c r="E87" s="50">
         <v>0.5</v>
       </c>
-      <c r="F87" s="18"/>
-      <c r="K87" s="77" t="s">
+      <c r="K87" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40" t="s">
+      <c r="L87" s="29"/>
+      <c r="M87" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N87" s="73"/>
-      <c r="O87" s="71">
+      <c r="N87" s="52"/>
+      <c r="O87" s="50">
         <v>0.5</v>
       </c>
-      <c r="P87" s="10" t="s">
+      <c r="P87" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="77" t="s">
+      <c r="A88" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="71">
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="50">
         <v>0.5</v>
       </c>
-      <c r="F88" s="18"/>
-      <c r="K88" s="77" t="s">
+      <c r="K88" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="73"/>
-      <c r="O88" s="71">
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="52"/>
+      <c r="O88" s="50">
         <v>0.5</v>
       </c>
-      <c r="P88" s="10" t="s">
+      <c r="P88" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="77" t="s">
+      <c r="A89" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="71">
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="50">
         <v>0.5</v>
       </c>
-      <c r="F89" s="18"/>
-      <c r="K89" s="77" t="s">
+      <c r="K89" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
-      <c r="N89" s="73"/>
-      <c r="O89" s="71">
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="52"/>
+      <c r="O89" s="50">
         <v>0.5</v>
       </c>
-      <c r="P89" s="10" t="s">
+      <c r="P89" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="77" t="s">
+      <c r="A90" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40" t="s">
+      <c r="B90" s="29"/>
+      <c r="C90" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D90" s="73"/>
-      <c r="E90" s="71">
+      <c r="D90" s="52"/>
+      <c r="E90" s="50">
         <v>0.5</v>
       </c>
-      <c r="F90" s="18"/>
-      <c r="K90" s="77" t="s">
+      <c r="K90" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="L90" s="40"/>
-      <c r="M90" s="40" t="s">
+      <c r="L90" s="29"/>
+      <c r="M90" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N90" s="73"/>
-      <c r="O90" s="71">
+      <c r="N90" s="52"/>
+      <c r="O90" s="50">
         <v>0.5</v>
       </c>
-      <c r="P90" s="10" t="s">
+      <c r="P90" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="77" t="s">
+      <c r="A91" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40" t="s">
+      <c r="B91" s="29"/>
+      <c r="C91" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D91" s="73"/>
-      <c r="E91" s="71">
+      <c r="D91" s="52"/>
+      <c r="E91" s="50">
         <v>0.5</v>
       </c>
-      <c r="F91" s="18"/>
-      <c r="K91" s="77" t="s">
+      <c r="K91" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="L91" s="40"/>
-      <c r="M91" s="40" t="s">
+      <c r="L91" s="29"/>
+      <c r="M91" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N91" s="73"/>
-      <c r="O91" s="71">
+      <c r="N91" s="52"/>
+      <c r="O91" s="50">
         <v>0.5</v>
       </c>
-      <c r="P91" s="10" t="s">
+      <c r="P91" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="77" t="s">
+      <c r="A92" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40" t="s">
+      <c r="B92" s="29"/>
+      <c r="C92" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D92" s="73"/>
-      <c r="E92" s="71">
+      <c r="D92" s="52"/>
+      <c r="E92" s="50">
         <v>0.5</v>
       </c>
-      <c r="F92" s="18"/>
-      <c r="K92" s="77" t="s">
+      <c r="K92" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="L92" s="40"/>
-      <c r="M92" s="40" t="s">
+      <c r="L92" s="29"/>
+      <c r="M92" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="N92" s="73"/>
-      <c r="O92" s="71">
+      <c r="N92" s="52"/>
+      <c r="O92" s="50">
         <v>0.5</v>
       </c>
-      <c r="P92" s="10" t="s">
+      <c r="P92" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="71">
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="50">
         <v>0.5</v>
       </c>
-      <c r="F93" s="18"/>
-      <c r="K93" s="77" t="s">
+      <c r="K93" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="73"/>
-      <c r="O93" s="71">
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="52"/>
+      <c r="O93" s="50">
         <v>0.5</v>
       </c>
-      <c r="P93" s="10" t="s">
+      <c r="P93" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="77" t="s">
+      <c r="A94" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="71">
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="50">
         <v>0.5</v>
       </c>
-      <c r="F94" s="18"/>
-      <c r="K94" s="77" t="s">
+      <c r="K94" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="73"/>
-      <c r="O94" s="71">
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="52"/>
+      <c r="O94" s="50">
         <v>0.5</v>
       </c>
-      <c r="P94" s="10" t="s">
+      <c r="P94" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="77" t="s">
+      <c r="A95" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="71">
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="50">
         <v>0.5</v>
       </c>
-      <c r="F95" s="18"/>
-      <c r="K95" s="77" t="s">
+      <c r="K95" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="L95" s="40"/>
-      <c r="M95" s="40"/>
-      <c r="N95" s="73"/>
-      <c r="O95" s="71">
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="52"/>
+      <c r="O95" s="50">
         <v>0.5</v>
       </c>
-      <c r="P95" s="10" t="s">
+      <c r="P95" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="77" t="s">
+      <c r="A96" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40" t="s">
+      <c r="B96" s="29"/>
+      <c r="C96" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="73"/>
-      <c r="E96" s="71">
+      <c r="D96" s="52"/>
+      <c r="E96" s="50">
         <v>0.5</v>
       </c>
-      <c r="F96" s="18"/>
-      <c r="K96" s="77" t="s">
+      <c r="K96" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="L96" s="40"/>
-      <c r="M96" s="40" t="s">
+      <c r="L96" s="29"/>
+      <c r="M96" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N96" s="73"/>
-      <c r="O96" s="71">
+      <c r="N96" s="52"/>
+      <c r="O96" s="50">
         <v>0.5</v>
       </c>
-      <c r="P96" s="10" t="s">
+      <c r="P96" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A97" s="98" t="s">
+      <c r="A97" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="71">
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="50">
         <v>1</v>
       </c>
-      <c r="K97" s="98" t="s">
+      <c r="K97" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="L97" s="40"/>
-      <c r="M97" s="42"/>
-      <c r="N97" s="73"/>
-      <c r="O97" s="71">
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="52"/>
+      <c r="O97" s="50">
         <v>1</v>
       </c>
-      <c r="P97" s="10" t="s">
+      <c r="P97" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A98" s="98" t="s">
+      <c r="A98" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="B98" s="40"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="71">
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="50">
         <v>1</v>
       </c>
-      <c r="K98" s="98" t="s">
+      <c r="K98" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="L98" s="40"/>
-      <c r="M98" s="42"/>
-      <c r="N98" s="73"/>
-      <c r="O98" s="71">
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="52"/>
+      <c r="O98" s="50">
         <v>1</v>
       </c>
-      <c r="P98" s="10" t="s">
+      <c r="P98" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A99" s="99" t="s">
+      <c r="A99" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="B99" s="22"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="100"/>
-      <c r="E99" s="85">
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="61">
         <v>1</v>
       </c>
-      <c r="K99" s="99" t="s">
+      <c r="K99" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="L99" s="22"/>
-      <c r="M99" s="44"/>
-      <c r="N99" s="100"/>
-      <c r="O99" s="85">
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="61">
         <v>1</v>
       </c>
-      <c r="P99" s="10" t="s">
+      <c r="P99" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="75"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="75"/>
+      <c r="O104" s="75"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A105" s="101" t="s">
+      <c r="A105" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B105" s="101"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="101" t="s">
+      <c r="B105" s="78"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="G105" s="101"/>
-      <c r="I105" s="61"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="101" t="s">
+      <c r="G105" s="78"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="44"/>
+      <c r="K105" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="L105" s="101"/>
-      <c r="N105" s="61"/>
-      <c r="O105" s="65"/>
+      <c r="L105" s="78"/>
+      <c r="N105" s="43"/>
+      <c r="O105" s="44"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A106" s="91" t="s">
+      <c r="A106" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B106" s="95"/>
-      <c r="C106" s="91"/>
-      <c r="D106" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E106" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F106" s="91" t="s">
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="G106" s="95"/>
-      <c r="H106" s="91"/>
-      <c r="I106" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="J106" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K106" s="91" t="s">
+      <c r="G106" s="64"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="J106" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K106" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="L106" s="95"/>
-      <c r="M106" s="91"/>
-      <c r="N106" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="O106" s="71" t="s">
+      <c r="L106" s="64"/>
+      <c r="M106" s="64"/>
+      <c r="N106" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="O106" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A107" s="42" t="s">
+      <c r="A107" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B107" s="40"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E107" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F107" s="42" t="s">
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F107" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G107" s="40"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J107" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K107" s="42" t="s">
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J107" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K107" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="L107" s="40"/>
-      <c r="M107" s="42"/>
-      <c r="N107" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O107" s="71" t="s">
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O107" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="B108" s="40"/>
-      <c r="C108" s="42" t="s">
+      <c r="B108" s="29"/>
+      <c r="C108" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D108" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E108" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F108" s="42" t="s">
+      <c r="D108" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G108" s="40"/>
-      <c r="H108" s="42" t="s">
+      <c r="G108" s="29"/>
+      <c r="H108" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I108" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J108" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K108" s="42" t="s">
+      <c r="I108" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J108" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K108" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="L108" s="40"/>
-      <c r="M108" s="42" t="s">
+      <c r="L108" s="29"/>
+      <c r="M108" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N108" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O108" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P108" s="10" t="s">
+      <c r="N108" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O108" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P108" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A109" s="42" t="s">
+      <c r="A109" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="B109" s="40"/>
-      <c r="C109" s="42" t="s">
+      <c r="B109" s="29"/>
+      <c r="C109" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D109" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E109" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F109" s="42" t="s">
+      <c r="D109" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F109" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G109" s="40"/>
-      <c r="H109" s="42" t="s">
+      <c r="G109" s="29"/>
+      <c r="H109" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I109" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J109" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K109" s="42" t="s">
+      <c r="I109" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J109" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K109" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="L109" s="40"/>
-      <c r="M109" s="42" t="s">
+      <c r="L109" s="29"/>
+      <c r="M109" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N109" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O109" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P109" s="10" t="s">
+      <c r="N109" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O109" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P109" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A110" s="42" t="s">
+      <c r="A110" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="B110" s="40"/>
-      <c r="C110" s="42" t="s">
+      <c r="B110" s="29"/>
+      <c r="C110" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E110" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F110" s="42" t="s">
+      <c r="D110" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E110" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F110" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G110" s="40"/>
-      <c r="H110" s="42" t="s">
+      <c r="G110" s="29"/>
+      <c r="H110" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I110" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J110" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K110" s="42" t="s">
+      <c r="I110" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J110" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K110" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="L110" s="40"/>
-      <c r="M110" s="42" t="s">
+      <c r="L110" s="29"/>
+      <c r="M110" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N110" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O110" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P110" s="10" t="s">
+      <c r="N110" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O110" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P110" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B111" s="40"/>
-      <c r="C111" s="42" t="s">
+      <c r="B111" s="29"/>
+      <c r="C111" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D111" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E111" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F111" s="42" t="s">
+      <c r="D111" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E111" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F111" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G111" s="40"/>
-      <c r="H111" s="42" t="s">
+      <c r="G111" s="29"/>
+      <c r="H111" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I111" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J111" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K111" s="42" t="s">
+      <c r="I111" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J111" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K111" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="L111" s="40"/>
-      <c r="M111" s="42" t="s">
+      <c r="L111" s="29"/>
+      <c r="M111" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N111" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O111" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P111" s="10" t="s">
+      <c r="N111" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O111" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P111" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="B112" s="40"/>
-      <c r="C112" s="42" t="s">
+      <c r="B112" s="29"/>
+      <c r="C112" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D112" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E112" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F112" s="42" t="s">
+      <c r="D112" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E112" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F112" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="G112" s="40"/>
-      <c r="H112" s="42" t="s">
+      <c r="G112" s="29"/>
+      <c r="H112" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I112" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J112" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K112" s="42" t="s">
+      <c r="I112" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J112" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K112" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="L112" s="40"/>
-      <c r="M112" s="42" t="s">
+      <c r="L112" s="29"/>
+      <c r="M112" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N112" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O112" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P112" s="10" t="s">
+      <c r="N112" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O112" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P112" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A113" s="42" t="s">
+      <c r="A113" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="40"/>
-      <c r="C113" s="42" t="s">
+      <c r="B113" s="29"/>
+      <c r="C113" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E113" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F113" s="42" t="s">
+      <c r="D113" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E113" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F113" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G113" s="40"/>
-      <c r="H113" s="42" t="s">
+      <c r="G113" s="29"/>
+      <c r="H113" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I113" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J113" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K113" s="42" t="s">
+      <c r="I113" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J113" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K113" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="L113" s="40"/>
-      <c r="M113" s="42" t="s">
+      <c r="L113" s="29"/>
+      <c r="M113" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N113" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O113" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P113" s="10" t="s">
+      <c r="N113" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O113" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P113" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A114" s="42" t="s">
+      <c r="A114" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="B114" s="40">
+      <c r="B114" s="29">
         <v>0</v>
       </c>
-      <c r="C114" s="42" t="s">
+      <c r="C114" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D114" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E114" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F114" s="42" t="s">
+      <c r="D114" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E114" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F114" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="G114" s="40">
+      <c r="G114" s="29">
         <v>0</v>
       </c>
-      <c r="H114" s="42" t="s">
+      <c r="H114" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I114" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J114" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K114" s="42" t="s">
+      <c r="I114" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J114" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K114" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="L114" s="40">
+      <c r="L114" s="29">
         <v>0</v>
       </c>
-      <c r="M114" s="42" t="s">
+      <c r="M114" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N114" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O114" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P114" s="10" t="s">
+      <c r="N114" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O114" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P114" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="42" t="s">
+      <c r="B115" s="29"/>
+      <c r="C115" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D115" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E115" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F115" s="42" t="s">
+      <c r="D115" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E115" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F115" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G115" s="40"/>
-      <c r="H115" s="42" t="s">
+      <c r="G115" s="29"/>
+      <c r="H115" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I115" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J115" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K115" s="42" t="s">
+      <c r="I115" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J115" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K115" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L115" s="40"/>
-      <c r="M115" s="42" t="s">
+      <c r="L115" s="29"/>
+      <c r="M115" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="N115" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O115" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P115" s="10" t="s">
+      <c r="N115" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O115" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P115" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="58.5" x14ac:dyDescent="0.45">
-      <c r="A116" s="102" t="s">
+      <c r="A116" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B116" s="40">
+      <c r="B116" s="29">
         <v>2</v>
       </c>
-      <c r="C116" s="42"/>
-      <c r="D116" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E116" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F116" s="102" t="s">
+      <c r="C116" s="29"/>
+      <c r="D116" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E116" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F116" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G116" s="40">
+      <c r="G116" s="29">
         <v>2</v>
       </c>
-      <c r="H116" s="42"/>
-      <c r="I116" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J116" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K116" s="102" t="s">
+      <c r="H116" s="29"/>
+      <c r="I116" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J116" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K116" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="L116" s="40">
+      <c r="L116" s="29">
         <v>2</v>
       </c>
-      <c r="M116" s="42"/>
-      <c r="N116" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O116" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P116" s="10" t="s">
+      <c r="M116" s="29"/>
+      <c r="N116" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O116" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P116" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="39" x14ac:dyDescent="0.45">
-      <c r="A117" s="102" t="s">
+      <c r="A117" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="40">
+      <c r="B117" s="29">
         <v>0</v>
       </c>
-      <c r="C117" s="42"/>
-      <c r="D117" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E117" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F117" s="102" t="s">
+      <c r="C117" s="29"/>
+      <c r="D117" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E117" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F117" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="G117" s="40">
+      <c r="G117" s="29">
         <v>0</v>
       </c>
-      <c r="H117" s="42"/>
-      <c r="I117" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J117" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K117" s="102" t="s">
+      <c r="H117" s="29"/>
+      <c r="I117" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J117" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K117" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="L117" s="40">
+      <c r="L117" s="29">
         <v>0</v>
       </c>
-      <c r="M117" s="42"/>
-      <c r="N117" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O117" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P117" s="10" t="s">
+      <c r="M117" s="29"/>
+      <c r="N117" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O117" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P117" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="B118" s="40"/>
-      <c r="C118" s="42" t="s">
+      <c r="B118" s="29"/>
+      <c r="C118" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E118" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F118" s="42" t="s">
+      <c r="D118" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E118" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F118" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="G118" s="40"/>
-      <c r="H118" s="42" t="s">
+      <c r="G118" s="29"/>
+      <c r="H118" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I118" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J118" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K118" s="42" t="s">
+      <c r="I118" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J118" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K118" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="L118" s="40"/>
-      <c r="M118" s="42" t="s">
+      <c r="L118" s="29"/>
+      <c r="M118" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N118" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O118" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P118" s="10" t="s">
+      <c r="N118" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O118" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P118" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A119" s="42" t="s">
+      <c r="A119" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="B119" s="40"/>
-      <c r="C119" s="42" t="s">
+      <c r="B119" s="29"/>
+      <c r="C119" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D119" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E119" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F119" s="42" t="s">
+      <c r="D119" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E119" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F119" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="G119" s="40"/>
-      <c r="H119" s="42" t="s">
+      <c r="G119" s="29"/>
+      <c r="H119" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I119" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J119" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K119" s="42" t="s">
+      <c r="I119" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J119" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K119" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="L119" s="40"/>
-      <c r="M119" s="42" t="s">
+      <c r="L119" s="29"/>
+      <c r="M119" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N119" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O119" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P119" s="10" t="s">
+      <c r="N119" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O119" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P119" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A120" s="42" t="s">
+      <c r="A120" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="B120" s="40"/>
-      <c r="C120" s="42" t="s">
+      <c r="B120" s="29"/>
+      <c r="C120" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D120" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E120" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F120" s="42" t="s">
+      <c r="D120" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E120" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F120" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="G120" s="40"/>
-      <c r="H120" s="42" t="s">
+      <c r="G120" s="29"/>
+      <c r="H120" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I120" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J120" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K120" s="42" t="s">
+      <c r="I120" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J120" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K120" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="L120" s="40"/>
-      <c r="M120" s="42" t="s">
+      <c r="L120" s="29"/>
+      <c r="M120" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N120" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O120" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P120" s="10" t="s">
+      <c r="N120" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O120" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P120" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A121" s="42" t="s">
+      <c r="A121" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="B121" s="40"/>
-      <c r="C121" s="42" t="s">
+      <c r="B121" s="29"/>
+      <c r="C121" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D121" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E121" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F121" s="42" t="s">
+      <c r="D121" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E121" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F121" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G121" s="40"/>
-      <c r="H121" s="42" t="s">
+      <c r="G121" s="29"/>
+      <c r="H121" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I121" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J121" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K121" s="42" t="s">
+      <c r="I121" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J121" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K121" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="L121" s="40"/>
-      <c r="M121" s="42" t="s">
+      <c r="L121" s="29"/>
+      <c r="M121" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N121" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O121" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P121" s="10" t="s">
+      <c r="N121" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O121" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P121" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A122" s="42" t="s">
+      <c r="A122" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B122" s="40"/>
-      <c r="C122" s="42" t="s">
+      <c r="B122" s="29"/>
+      <c r="C122" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D122" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E122" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F122" s="42" t="s">
+      <c r="D122" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E122" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F122" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G122" s="40"/>
-      <c r="H122" s="42" t="s">
+      <c r="G122" s="29"/>
+      <c r="H122" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I122" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J122" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K122" s="42" t="s">
+      <c r="I122" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J122" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K122" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="L122" s="40"/>
-      <c r="M122" s="42" t="s">
+      <c r="L122" s="29"/>
+      <c r="M122" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N122" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O122" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P122" s="10" t="s">
+      <c r="N122" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O122" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P122" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="B123" s="40"/>
-      <c r="C123" s="42" t="s">
+      <c r="B123" s="29"/>
+      <c r="C123" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D123" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E123" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F123" s="42" t="s">
+      <c r="D123" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E123" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F123" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G123" s="40"/>
-      <c r="H123" s="42" t="s">
+      <c r="G123" s="29"/>
+      <c r="H123" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I123" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J123" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K123" s="42" t="s">
+      <c r="I123" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J123" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K123" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="L123" s="40"/>
-      <c r="M123" s="42" t="s">
+      <c r="L123" s="29"/>
+      <c r="M123" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N123" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O123" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P123" s="10" t="s">
+      <c r="N123" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O123" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P123" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A124" s="42" t="s">
+      <c r="A124" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="B124" s="40"/>
-      <c r="C124" s="42" t="s">
+      <c r="B124" s="29"/>
+      <c r="C124" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D124" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E124" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F124" s="42" t="s">
+      <c r="D124" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E124" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F124" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G124" s="40"/>
-      <c r="H124" s="42" t="s">
+      <c r="G124" s="29"/>
+      <c r="H124" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I124" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J124" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K124" s="42" t="s">
+      <c r="I124" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J124" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K124" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="L124" s="40"/>
-      <c r="M124" s="42" t="s">
+      <c r="L124" s="29"/>
+      <c r="M124" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N124" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O124" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P124" s="10" t="s">
+      <c r="N124" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O124" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P124" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A125" s="42" t="s">
+      <c r="A125" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="B125" s="40"/>
-      <c r="C125" s="42" t="s">
+      <c r="B125" s="29"/>
+      <c r="C125" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D125" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E125" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F125" s="42" t="s">
+      <c r="D125" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E125" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F125" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G125" s="40"/>
-      <c r="H125" s="42" t="s">
+      <c r="G125" s="29"/>
+      <c r="H125" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I125" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J125" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K125" s="42" t="s">
+      <c r="I125" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J125" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K125" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="L125" s="40"/>
-      <c r="M125" s="42" t="s">
+      <c r="L125" s="29"/>
+      <c r="M125" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N125" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O125" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P125" s="10" t="s">
+      <c r="N125" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O125" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P125" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A126" s="42" t="s">
+      <c r="A126" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="42" t="s">
+      <c r="B126" s="29"/>
+      <c r="C126" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D126" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E126" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F126" s="42" t="s">
+      <c r="D126" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E126" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F126" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="G126" s="40"/>
-      <c r="H126" s="42" t="s">
+      <c r="G126" s="29"/>
+      <c r="H126" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I126" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J126" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K126" s="42" t="s">
+      <c r="I126" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J126" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K126" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="L126" s="40"/>
-      <c r="M126" s="42" t="s">
+      <c r="L126" s="29"/>
+      <c r="M126" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N126" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O126" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P126" s="10" t="s">
+      <c r="N126" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O126" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P126" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A127" s="103" t="s">
+      <c r="A127" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="B127" s="40"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="71">
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="50">
         <v>0.5</v>
       </c>
-      <c r="F127" s="103" t="s">
+      <c r="F127" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="G127" s="40"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="73"/>
-      <c r="J127" s="71">
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="52"/>
+      <c r="J127" s="50">
         <v>0.5</v>
       </c>
-      <c r="K127" s="103" t="s">
+      <c r="K127" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="L127" s="40"/>
-      <c r="M127" s="42"/>
-      <c r="N127" s="73"/>
-      <c r="O127" s="71">
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="52"/>
+      <c r="O127" s="50">
         <v>0.5</v>
       </c>
-      <c r="P127" s="10" t="s">
+      <c r="P127" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A128" s="103" t="s">
+      <c r="A128" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="B128" s="40"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="71">
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="50">
         <v>0.5</v>
       </c>
-      <c r="F128" s="103" t="s">
+      <c r="F128" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="G128" s="40"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="73"/>
-      <c r="J128" s="71">
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="52"/>
+      <c r="J128" s="50">
         <v>0.5</v>
       </c>
-      <c r="K128" s="103" t="s">
+      <c r="K128" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="L128" s="40"/>
-      <c r="M128" s="42"/>
-      <c r="N128" s="73"/>
-      <c r="O128" s="71">
+      <c r="L128" s="29"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="52"/>
+      <c r="O128" s="50">
         <v>0.5</v>
       </c>
-      <c r="P128" s="10" t="s">
+      <c r="P128" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A129" s="103" t="s">
+      <c r="A129" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="B129" s="40"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="71">
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="50">
         <v>0.5</v>
       </c>
-      <c r="F129" s="103" t="s">
+      <c r="F129" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="G129" s="40"/>
-      <c r="H129" s="42"/>
-      <c r="I129" s="73"/>
-      <c r="J129" s="71">
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="52"/>
+      <c r="J129" s="50">
         <v>0.5</v>
       </c>
-      <c r="K129" s="103" t="s">
+      <c r="K129" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="L129" s="40"/>
-      <c r="M129" s="42"/>
-      <c r="N129" s="73"/>
-      <c r="O129" s="71">
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="52"/>
+      <c r="O129" s="50">
         <v>0.5</v>
       </c>
-      <c r="P129" s="10" t="s">
+      <c r="P129" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A130" s="103" t="s">
+      <c r="A130" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="B130" s="40"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="71">
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="50">
         <v>0.5</v>
       </c>
-      <c r="F130" s="103" t="s">
+      <c r="F130" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="G130" s="40"/>
-      <c r="H130" s="42"/>
-      <c r="I130" s="73"/>
-      <c r="J130" s="71">
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="52"/>
+      <c r="J130" s="50">
         <v>0.5</v>
       </c>
-      <c r="K130" s="103" t="s">
+      <c r="K130" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="L130" s="40"/>
-      <c r="M130" s="42"/>
-      <c r="N130" s="73"/>
-      <c r="O130" s="71">
+      <c r="L130" s="29"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="52"/>
+      <c r="O130" s="50">
         <v>0.5</v>
       </c>
-      <c r="P130" s="10" t="s">
+      <c r="P130" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A131" s="103" t="s">
+      <c r="A131" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="B131" s="40"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="73"/>
-      <c r="E131" s="71">
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="50">
         <v>0.5</v>
       </c>
-      <c r="F131" s="103" t="s">
+      <c r="F131" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="G131" s="40"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="73"/>
-      <c r="J131" s="71">
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="52"/>
+      <c r="J131" s="50">
         <v>0.5</v>
       </c>
-      <c r="K131" s="103" t="s">
+      <c r="K131" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="L131" s="40"/>
-      <c r="M131" s="42"/>
-      <c r="N131" s="73"/>
-      <c r="O131" s="71">
+      <c r="L131" s="29"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="52"/>
+      <c r="O131" s="50">
         <v>0.5</v>
       </c>
-      <c r="P131" s="10" t="s">
+      <c r="P131" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A132" s="103" t="s">
+      <c r="A132" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="B132" s="40"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="73"/>
-      <c r="E132" s="71">
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="50">
         <v>0.5</v>
       </c>
-      <c r="F132" s="103" t="s">
+      <c r="F132" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="G132" s="40"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="73"/>
-      <c r="J132" s="71">
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="52"/>
+      <c r="J132" s="50">
         <v>0.5</v>
       </c>
-      <c r="K132" s="103" t="s">
+      <c r="K132" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="L132" s="40"/>
-      <c r="M132" s="42"/>
-      <c r="N132" s="73"/>
-      <c r="O132" s="71">
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="52"/>
+      <c r="O132" s="50">
         <v>0.5</v>
       </c>
-      <c r="P132" s="10" t="s">
+      <c r="P132" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A133" s="103" t="s">
+      <c r="A133" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="B133" s="40"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="71">
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="50">
         <v>0.5</v>
       </c>
-      <c r="F133" s="103" t="s">
+      <c r="F133" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="G133" s="40"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="73"/>
-      <c r="J133" s="71">
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="52"/>
+      <c r="J133" s="50">
         <v>0.5</v>
       </c>
-      <c r="K133" s="103" t="s">
+      <c r="K133" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="L133" s="40"/>
-      <c r="M133" s="42"/>
-      <c r="N133" s="73"/>
-      <c r="O133" s="71">
+      <c r="L133" s="29"/>
+      <c r="M133" s="29"/>
+      <c r="N133" s="52"/>
+      <c r="O133" s="50">
         <v>0.5</v>
       </c>
-      <c r="P133" s="10" t="s">
+      <c r="P133" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A134" s="103" t="s">
+      <c r="A134" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="B134" s="40"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="73"/>
-      <c r="E134" s="71">
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="50">
         <v>0.5</v>
       </c>
-      <c r="F134" s="103" t="s">
+      <c r="F134" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="G134" s="40"/>
-      <c r="H134" s="42"/>
-      <c r="I134" s="73"/>
-      <c r="J134" s="71">
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="52"/>
+      <c r="J134" s="50">
         <v>0.5</v>
       </c>
-      <c r="K134" s="103" t="s">
+      <c r="K134" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="L134" s="40"/>
-      <c r="M134" s="42"/>
-      <c r="N134" s="73"/>
-      <c r="O134" s="71">
+      <c r="L134" s="29"/>
+      <c r="M134" s="29"/>
+      <c r="N134" s="52"/>
+      <c r="O134" s="50">
         <v>0.5</v>
       </c>
-      <c r="P134" s="10" t="s">
+      <c r="P134" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A135" s="103" t="s">
+      <c r="A135" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="B135" s="40"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="71">
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="50">
         <v>0.5</v>
       </c>
-      <c r="F135" s="103" t="s">
+      <c r="F135" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="G135" s="40"/>
-      <c r="H135" s="42"/>
-      <c r="I135" s="73"/>
-      <c r="J135" s="71">
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="52"/>
+      <c r="J135" s="50">
         <v>0.5</v>
       </c>
-      <c r="K135" s="103" t="s">
+      <c r="K135" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="L135" s="40"/>
-      <c r="M135" s="42"/>
-      <c r="N135" s="73"/>
-      <c r="O135" s="71">
+      <c r="L135" s="29"/>
+      <c r="M135" s="29"/>
+      <c r="N135" s="52"/>
+      <c r="O135" s="50">
         <v>0.5</v>
       </c>
-      <c r="P135" s="10" t="s">
+      <c r="P135" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A136" s="103" t="s">
+      <c r="A136" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="B136" s="40"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="73"/>
-      <c r="E136" s="71">
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="50">
         <v>0.5</v>
       </c>
-      <c r="F136" s="103" t="s">
+      <c r="F136" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="G136" s="40"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="73"/>
-      <c r="J136" s="71">
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="52"/>
+      <c r="J136" s="50">
         <v>0.5</v>
       </c>
-      <c r="K136" s="103" t="s">
+      <c r="K136" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="L136" s="40"/>
-      <c r="M136" s="42"/>
-      <c r="N136" s="73"/>
-      <c r="O136" s="71">
+      <c r="L136" s="29"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="52"/>
+      <c r="O136" s="50">
         <v>0.5</v>
       </c>
-      <c r="P136" s="10" t="s">
+      <c r="P136" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A137" s="103" t="s">
+      <c r="A137" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="B137" s="40"/>
-      <c r="C137" s="42" t="s">
+      <c r="B137" s="29"/>
+      <c r="C137" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D137" s="73"/>
-      <c r="E137" s="71">
+      <c r="D137" s="52"/>
+      <c r="E137" s="50">
         <v>0.5</v>
       </c>
-      <c r="F137" s="103" t="s">
+      <c r="F137" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="G137" s="40"/>
-      <c r="H137" s="42" t="s">
+      <c r="G137" s="29"/>
+      <c r="H137" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I137" s="73"/>
-      <c r="J137" s="71">
+      <c r="I137" s="52"/>
+      <c r="J137" s="50">
         <v>0.5</v>
       </c>
-      <c r="K137" s="103" t="s">
+      <c r="K137" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="L137" s="40"/>
-      <c r="M137" s="42" t="s">
+      <c r="L137" s="29"/>
+      <c r="M137" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N137" s="73"/>
-      <c r="O137" s="71">
+      <c r="N137" s="52"/>
+      <c r="O137" s="50">
         <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A138" s="103" t="s">
+      <c r="A138" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="40"/>
-      <c r="C138" s="42" t="s">
+      <c r="B138" s="29"/>
+      <c r="C138" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D138" s="73"/>
-      <c r="E138" s="71">
+      <c r="D138" s="52"/>
+      <c r="E138" s="50">
         <v>0.5</v>
       </c>
-      <c r="F138" s="103" t="s">
+      <c r="F138" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="G138" s="40"/>
-      <c r="H138" s="42" t="s">
+      <c r="G138" s="29"/>
+      <c r="H138" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I138" s="73"/>
-      <c r="J138" s="71">
+      <c r="I138" s="52"/>
+      <c r="J138" s="50">
         <v>0.5</v>
       </c>
-      <c r="K138" s="103" t="s">
+      <c r="K138" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="L138" s="40"/>
-      <c r="M138" s="42" t="s">
+      <c r="L138" s="29"/>
+      <c r="M138" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N138" s="73"/>
-      <c r="O138" s="71">
+      <c r="N138" s="52"/>
+      <c r="O138" s="50">
         <v>0.5</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A139" s="103" t="s">
+      <c r="A139" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="B139" s="40"/>
-      <c r="C139" s="42" t="s">
+      <c r="B139" s="29"/>
+      <c r="C139" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D139" s="73"/>
-      <c r="E139" s="71">
+      <c r="D139" s="52"/>
+      <c r="E139" s="50">
         <v>0.5</v>
       </c>
-      <c r="F139" s="103" t="s">
+      <c r="F139" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="G139" s="40"/>
-      <c r="H139" s="42" t="s">
+      <c r="G139" s="29"/>
+      <c r="H139" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I139" s="73"/>
-      <c r="J139" s="71">
+      <c r="I139" s="52"/>
+      <c r="J139" s="50">
         <v>0.5</v>
       </c>
-      <c r="K139" s="103" t="s">
+      <c r="K139" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="L139" s="40"/>
-      <c r="M139" s="42" t="s">
+      <c r="L139" s="29"/>
+      <c r="M139" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N139" s="73"/>
-      <c r="O139" s="71">
+      <c r="N139" s="52"/>
+      <c r="O139" s="50">
         <v>0.5</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A140" s="98" t="s">
+      <c r="A140" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="B140" s="40"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="73"/>
-      <c r="E140" s="71">
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="50">
         <v>1</v>
       </c>
-      <c r="F140" s="98" t="s">
+      <c r="F140" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="G140" s="40"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="73"/>
-      <c r="J140" s="71">
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="52"/>
+      <c r="J140" s="50">
         <v>1</v>
       </c>
-      <c r="K140" s="98" t="s">
+      <c r="K140" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="L140" s="40"/>
-      <c r="M140" s="42"/>
-      <c r="N140" s="73"/>
-      <c r="O140" s="71">
+      <c r="L140" s="29"/>
+      <c r="M140" s="29"/>
+      <c r="N140" s="52"/>
+      <c r="O140" s="50">
         <v>1</v>
       </c>
-      <c r="P140" s="10" t="s">
+      <c r="P140" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A141" s="99" t="s">
+      <c r="A141" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="B141" s="22"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="100"/>
-      <c r="E141" s="85">
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="61">
         <v>1</v>
       </c>
-      <c r="F141" s="99" t="s">
+      <c r="F141" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="G141" s="22"/>
-      <c r="H141" s="44"/>
-      <c r="I141" s="100"/>
-      <c r="J141" s="85">
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="69"/>
+      <c r="J141" s="61">
         <v>1</v>
       </c>
-      <c r="K141" s="99" t="s">
+      <c r="K141" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="L141" s="22"/>
-      <c r="M141" s="44"/>
-      <c r="N141" s="100"/>
-      <c r="O141" s="85">
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="69"/>
+      <c r="O141" s="61">
         <v>1</v>
       </c>
-      <c r="P141" s="10" t="s">
+      <c r="P141" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P143" s="10" t="s">
+      <c r="P143" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
+      <c r="B147" s="75"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="75"/>
+      <c r="E147" s="75"/>
+      <c r="F147" s="75"/>
+      <c r="G147" s="75"/>
+      <c r="H147" s="75"/>
+      <c r="I147" s="75"/>
+      <c r="J147" s="75"/>
+      <c r="K147" s="75"/>
+      <c r="L147" s="75"/>
+      <c r="M147" s="75"/>
+      <c r="N147" s="75"/>
+      <c r="O147" s="75"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A148" s="104" t="s">
+      <c r="A148" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="B148" s="104"/>
-      <c r="C148" s="104"/>
-      <c r="D148" s="61"/>
-      <c r="E148" s="65"/>
-      <c r="K148" s="93" t="s">
+      <c r="B148" s="76"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="44"/>
+      <c r="K148" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="L148" s="93"/>
-      <c r="M148" s="93"/>
-      <c r="N148" s="61"/>
-      <c r="O148" s="65"/>
+      <c r="L148" s="78"/>
+      <c r="M148" s="78"/>
+      <c r="N148" s="43"/>
+      <c r="O148" s="44"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A149" s="91" t="s">
+      <c r="A149" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B149" s="40"/>
-      <c r="C149" s="91"/>
-      <c r="D149" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E149" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K149" s="91" t="s">
+      <c r="B149" s="29"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E149" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K149" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="L149" s="95"/>
-      <c r="M149" s="91"/>
-      <c r="N149" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="O149" s="71" t="s">
+      <c r="L149" s="64"/>
+      <c r="M149" s="64"/>
+      <c r="N149" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="O149" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A150" s="105" t="s">
+      <c r="A150" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B150" s="40"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="73"/>
-      <c r="E150" s="71">
+      <c r="B150" s="29"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="50">
         <v>1</v>
       </c>
-      <c r="K150" s="105" t="s">
+      <c r="K150" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="L150" s="37"/>
-      <c r="M150" s="39"/>
-      <c r="N150" s="73"/>
-      <c r="O150" s="71">
+      <c r="L150" s="27"/>
+      <c r="M150" s="27"/>
+      <c r="N150" s="52"/>
+      <c r="O150" s="50">
         <v>1</v>
       </c>
-      <c r="P150" s="10" t="s">
+      <c r="P150" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A151" s="42" t="s">
+      <c r="A151" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B151" s="40"/>
-      <c r="C151" s="42" t="s">
+      <c r="B151" s="29"/>
+      <c r="C151" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D151" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E151" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K151" s="42" t="s">
+      <c r="D151" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E151" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K151" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="L151" s="40"/>
-      <c r="M151" s="42" t="s">
+      <c r="L151" s="29"/>
+      <c r="M151" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N151" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O151" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P151" s="10" t="s">
+      <c r="N151" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O151" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P151" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A152" s="42" t="s">
+      <c r="A152" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B152" s="40"/>
-      <c r="C152" s="42" t="s">
+      <c r="B152" s="29"/>
+      <c r="C152" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D152" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E152" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K152" s="42" t="s">
+      <c r="D152" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E152" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K152" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L152" s="40"/>
-      <c r="M152" s="42" t="s">
+      <c r="L152" s="29"/>
+      <c r="M152" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N152" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O152" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P152" s="10" t="s">
+      <c r="N152" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O152" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P152" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A153" s="42" t="str">
+      <c r="A153" s="29" t="str">
         <f>IF(B$149="passfeder","p_zulPF",IF(B$149="keilwelle_leicht","d",IF(B$149="keilwelle_mittel","d",IF(B$149="evolvente","d_a1"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B153" s="40"/>
-      <c r="C153" s="42" t="str">
+      <c r="B153" s="29"/>
+      <c r="C153" s="29" t="str">
         <f>IF(B$149="passfeder","MPa",IF(B$149="keilwelle_leicht","mm",IF(B$149="keilwelle_mittel","mm",IF(B$149="evolvente","mm"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D153" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E153" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K153" s="42" t="str">
+      <c r="D153" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E153" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K153" s="29" t="str">
         <f>IF(L$149="passfeder","p_zulPF",IF(L$149="keilwelle_leicht","d",IF(L$149="keilwelle_mittel","d",IF(L$149="evolvente","d_a1"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L153" s="40"/>
-      <c r="M153" s="42" t="str">
+      <c r="L153" s="29"/>
+      <c r="M153" s="29" t="str">
         <f>IF(L$149="passfeder","MPa",IF(L$149="keilwelle_leicht","mm",IF(L$149="keilwelle_mittel","mm",IF(L$149="evolvente","mm"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N153" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O153" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P153" s="10" t="s">
+      <c r="N153" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O153" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P153" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A154" s="42" t="str">
+      <c r="A154" s="29" t="str">
         <f>IF(B$149="passfeder","d_F",IF(B$149="keilwelle_leicht","l_N",IF(B$149="keilwelle_mittel","l_N",IF(B$149="evolvente","d_a2"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B154" s="40"/>
-      <c r="C154" s="42" t="str">
+      <c r="B154" s="29"/>
+      <c r="C154" s="29" t="str">
         <f>IF(B$149="passfeder","mm",IF(B$149="keilwelle_leicht","mm",IF(B$149="keilwelle_mittel","mm",IF(B$149="evolvente","mm"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D154" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E154" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K154" s="42" t="str">
+      <c r="D154" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E154" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K154" s="29" t="str">
         <f>IF(L$149="passfeder","d_F",IF(L$149="keilwelle_leicht","l_N",IF(L$149="keilwelle_mittel","l_N",IF(L$149="evolvente","d_a2"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L154" s="40"/>
-      <c r="M154" s="42" t="str">
+      <c r="L154" s="29"/>
+      <c r="M154" s="29" t="str">
         <f>IF(L$149="passfeder","mm",IF(L$149="keilwelle_leicht","mm",IF(L$149="keilwelle_mittel","mm",IF(L$149="evolvente","mm"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N154" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O154" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P154" s="10" t="s">
+      <c r="N154" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O154" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P154" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A155" s="42" t="str">
+      <c r="A155" s="29" t="str">
         <f>IF(B$149="passfeder","L_1",IF(B$149="evolvente","l_N"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B155" s="40"/>
-      <c r="C155" s="42" t="str">
+      <c r="B155" s="29"/>
+      <c r="C155" s="29" t="str">
         <f>IF(B$149="passfeder","mm",IF(B$149="evolvente","mm"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D155" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E155" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K155" s="42" t="str">
+      <c r="D155" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E155" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K155" s="29" t="str">
         <f>IF(L$149="passfeder","L_1",IF(L$149="evolvente","l_N"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L155" s="40"/>
-      <c r="M155" s="42" t="str">
+      <c r="L155" s="29"/>
+      <c r="M155" s="29" t="str">
         <f>IF(L$149="passfeder","mm",IF(L$149="evolvente","mm"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N155" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O155" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P155" s="10" t="s">
+      <c r="N155" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O155" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P155" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A156" s="33" t="str">
+      <c r="A156" s="23" t="str">
         <f>IF(B$149="evolvente","z"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B156" s="106"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="E156" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="K156" s="33" t="str">
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E156" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="K156" s="23" t="str">
         <f>IF(L$149="evolvente","z"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L156" s="106"/>
-      <c r="M156" s="33"/>
-      <c r="N156" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="O156" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="P156" s="10" t="s">
+      <c r="L156" s="23"/>
+      <c r="M156" s="23"/>
+      <c r="N156" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="O156" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="P156" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A159" s="104" t="s">
+      <c r="A159" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="B159" s="104"/>
-      <c r="C159" s="104"/>
-      <c r="D159" s="87"/>
-      <c r="E159" s="88"/>
+      <c r="B159" s="76"/>
+      <c r="C159" s="76"/>
+      <c r="D159" s="62"/>
+      <c r="E159" s="63"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B160" s="40" t="s">
+      <c r="B160" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D160" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E160" s="71" t="s">
+      <c r="D160" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E160" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A161" s="42" t="s">
+      <c r="A161" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B161" s="40"/>
-      <c r="C161" s="42" t="s">
+      <c r="B161" s="29"/>
+      <c r="C161" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D161" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E161" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P161" s="10" t="s">
+      <c r="D161" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E161" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P161" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A162" s="42" t="s">
+      <c r="A162" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="B162" s="40"/>
-      <c r="C162" s="42" t="s">
+      <c r="B162" s="29"/>
+      <c r="C162" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E162" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P162" s="10" t="s">
+      <c r="D162" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E162" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P162" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A163" s="42" t="s">
+      <c r="A163" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="B163" s="40"/>
-      <c r="C163" s="42" t="s">
+      <c r="B163" s="29"/>
+      <c r="C163" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D163" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E163" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P163" s="10" t="s">
+      <c r="D163" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E163" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P163" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A164" s="42" t="s">
+      <c r="A164" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="B164" s="40">
+      <c r="B164" s="29">
         <v>0</v>
       </c>
-      <c r="C164" s="42" t="s">
+      <c r="C164" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D164" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E164" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P164" s="10" t="s">
+      <c r="D164" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E164" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P164" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A165" s="42" t="s">
+      <c r="A165" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="B165" s="40"/>
-      <c r="C165" s="42" t="s">
+      <c r="B165" s="29"/>
+      <c r="C165" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D165" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E165" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P165" s="10" t="s">
+      <c r="D165" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E165" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P165" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A166" s="42" t="s">
+      <c r="A166" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="B166" s="40"/>
-      <c r="C166" s="42" t="s">
+      <c r="B166" s="29"/>
+      <c r="C166" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D166" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E166" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P166" s="10" t="s">
+      <c r="D166" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E166" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P166" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A167" s="42" t="s">
+      <c r="A167" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="B167" s="40"/>
-      <c r="C167" s="42" t="s">
+      <c r="B167" s="29"/>
+      <c r="C167" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D167" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E167" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P167" s="10" t="s">
+      <c r="D167" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E167" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P167" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A168" s="42" t="s">
+      <c r="A168" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="B168" s="40"/>
-      <c r="C168" s="42" t="s">
+      <c r="B168" s="29"/>
+      <c r="C168" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D168" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E168" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P168" s="10" t="s">
+      <c r="D168" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E168" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P168" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A169" s="42" t="s">
+      <c r="A169" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="B169" s="40"/>
-      <c r="C169" s="42" t="s">
+      <c r="B169" s="29"/>
+      <c r="C169" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D169" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E169" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P169" s="10" t="s">
+      <c r="D169" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E169" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P169" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A170" s="42" t="s">
+      <c r="A170" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B170" s="40"/>
-      <c r="C170" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D170" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E170" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P170" s="10" t="s">
+      <c r="B170" s="29"/>
+      <c r="C170" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D170" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E170" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P170" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A171" s="42" t="s">
+      <c r="A171" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="B171" s="40"/>
-      <c r="C171" s="42" t="s">
+      <c r="B171" s="29"/>
+      <c r="C171" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D171" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E171" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P171" s="10" t="s">
+      <c r="D171" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E171" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P171" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A172" s="42" t="s">
+      <c r="A172" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B172" s="40"/>
-      <c r="C172" s="42" t="s">
+      <c r="B172" s="29"/>
+      <c r="C172" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D172" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E172" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="P172" s="10" t="s">
+      <c r="D172" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E172" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P172" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A173" s="103" t="s">
+      <c r="A173" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="B173" s="40"/>
-      <c r="C173" s="42" t="s">
+      <c r="B173" s="29"/>
+      <c r="C173" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D173" s="73"/>
-      <c r="E173" s="71">
+      <c r="D173" s="52"/>
+      <c r="E173" s="50">
         <v>0.5</v>
       </c>
-      <c r="P173" s="10" t="s">
+      <c r="P173" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A174" s="103" t="s">
+      <c r="A174" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="B174" s="40"/>
-      <c r="C174" s="42" t="s">
+      <c r="B174" s="29"/>
+      <c r="C174" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D174" s="73"/>
-      <c r="E174" s="71">
+      <c r="D174" s="52"/>
+      <c r="E174" s="50">
         <v>0.5</v>
       </c>
-      <c r="P174" s="10" t="s">
+      <c r="P174" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A175" s="103" t="s">
+      <c r="A175" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="B175" s="40"/>
-      <c r="C175" s="42" t="s">
+      <c r="B175" s="29"/>
+      <c r="C175" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D175" s="73"/>
-      <c r="E175" s="71">
+      <c r="D175" s="52"/>
+      <c r="E175" s="50">
         <v>0.5</v>
       </c>
-      <c r="P175" s="10" t="s">
+      <c r="P175" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A176" s="103" t="s">
+      <c r="A176" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="B176" s="40"/>
-      <c r="C176" s="42" t="s">
+      <c r="B176" s="29"/>
+      <c r="C176" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D176" s="73"/>
-      <c r="E176" s="71">
+      <c r="D176" s="52"/>
+      <c r="E176" s="50">
         <v>0.5</v>
       </c>
-      <c r="P176" s="10" t="s">
+      <c r="P176" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A177" s="103" t="s">
+      <c r="A177" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="B177" s="40"/>
-      <c r="C177" s="42" t="s">
+      <c r="B177" s="29"/>
+      <c r="C177" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D177" s="73"/>
-      <c r="E177" s="71">
+      <c r="D177" s="52"/>
+      <c r="E177" s="50">
         <v>0.5</v>
       </c>
-      <c r="P177" s="10" t="s">
+      <c r="P177" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A178" s="103" t="s">
+      <c r="A178" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="B178" s="40"/>
-      <c r="C178" s="42" t="s">
+      <c r="B178" s="29"/>
+      <c r="C178" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D178" s="73"/>
-      <c r="E178" s="71">
+      <c r="D178" s="52"/>
+      <c r="E178" s="50">
         <v>0.5</v>
       </c>
-      <c r="P178" s="10" t="s">
+      <c r="P178" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A179" s="98" t="s">
+      <c r="A179" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="B179" s="40"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="73"/>
-      <c r="E179" s="71">
+      <c r="B179" s="29"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="52"/>
+      <c r="E179" s="50">
         <v>1</v>
       </c>
-      <c r="P179" s="10" t="s">
+      <c r="P179" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A180" s="99" t="s">
+      <c r="A180" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="B180" s="22"/>
-      <c r="C180" s="44"/>
-      <c r="D180" s="100"/>
-      <c r="E180" s="85">
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="69"/>
+      <c r="E180" s="61">
         <v>1</v>
       </c>
-      <c r="P180" s="10" t="s">
+      <c r="P180" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="183" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A183" s="107" t="s">
+      <c r="A183" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B183" s="107"/>
-      <c r="C183" s="107"/>
-      <c r="D183" s="61"/>
-      <c r="E183" s="65"/>
-      <c r="F183" s="107" t="s">
+      <c r="B183" s="77"/>
+      <c r="C183" s="77"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="44"/>
+      <c r="F183" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="G183" s="107"/>
-      <c r="H183" s="107"/>
-      <c r="I183" s="61"/>
-      <c r="J183" s="65"/>
-      <c r="K183" s="107" t="s">
+      <c r="G183" s="77"/>
+      <c r="H183" s="77"/>
+      <c r="I183" s="43"/>
+      <c r="J183" s="44"/>
+      <c r="K183" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="L183" s="107"/>
-      <c r="M183" s="107"/>
-      <c r="N183" s="61"/>
-      <c r="O183" s="65"/>
+      <c r="L183" s="77"/>
+      <c r="M183" s="77"/>
+      <c r="N183" s="43"/>
+      <c r="O183" s="44"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A184" s="91" t="s">
+      <c r="A184" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B184" s="40"/>
-      <c r="C184" s="91"/>
-      <c r="D184" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E184" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F184" s="91" t="s">
+      <c r="B184" s="29"/>
+      <c r="C184" s="64"/>
+      <c r="D184" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E184" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F184" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="G184" s="40"/>
-      <c r="H184" s="91"/>
-      <c r="I184" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="J184" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K184" s="91" t="s">
+      <c r="G184" s="29"/>
+      <c r="H184" s="64"/>
+      <c r="I184" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="J184" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K184" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="L184" s="40"/>
-      <c r="M184" s="91"/>
-      <c r="N184" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="O184" s="71" t="s">
+      <c r="L184" s="29"/>
+      <c r="M184" s="64"/>
+      <c r="N184" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="O184" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A185" s="105" t="s">
+      <c r="A185" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B185" s="40"/>
-      <c r="C185" s="39"/>
-      <c r="D185" s="73"/>
-      <c r="E185" s="71">
+      <c r="B185" s="29"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="52"/>
+      <c r="E185" s="50">
         <v>1</v>
       </c>
-      <c r="F185" s="105" t="s">
+      <c r="F185" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="G185" s="40"/>
-      <c r="H185" s="39"/>
-      <c r="I185" s="73"/>
-      <c r="J185" s="71">
+      <c r="G185" s="29"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="52"/>
+      <c r="J185" s="50">
         <v>1</v>
       </c>
-      <c r="K185" s="105" t="s">
+      <c r="K185" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="L185" s="40"/>
-      <c r="M185" s="39"/>
-      <c r="N185" s="73"/>
-      <c r="O185" s="71">
+      <c r="L185" s="29"/>
+      <c r="M185" s="27"/>
+      <c r="N185" s="52"/>
+      <c r="O185" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A186" s="42" t="s">
+      <c r="A186" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B186" s="40"/>
-      <c r="C186" s="42" t="s">
+      <c r="B186" s="29"/>
+      <c r="C186" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D186" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E186" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F186" s="42" t="s">
+      <c r="D186" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E186" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F186" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="G186" s="40"/>
-      <c r="H186" s="42" t="s">
+      <c r="G186" s="29"/>
+      <c r="H186" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I186" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J186" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K186" s="42" t="s">
+      <c r="I186" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J186" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K186" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L186" s="40"/>
-      <c r="M186" s="42" t="s">
+      <c r="L186" s="29"/>
+      <c r="M186" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N186" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O186" s="71" t="s">
+      <c r="N186" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O186" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A187" s="42" t="str">
+      <c r="A187" s="29" t="str">
         <f>IF(B$184="passfeder","p_zulPF",IF(B$184="keilwelle_leicht","d",IF(B$184="keilwelle_mittel","d",IF(B$184="evolvente","d_a1"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B187" s="40"/>
-      <c r="C187" s="42" t="str">
+      <c r="B187" s="29"/>
+      <c r="C187" s="29" t="str">
         <f>IF(B$184="passfeder","MPa",IF(B$184="keilwelle_leicht","mm",IF(B$184="keilwelle_mittel","mm",IF(B$184="evolvente","mm"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D187" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E187" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F187" s="42" t="str">
+      <c r="D187" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E187" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F187" s="29" t="str">
         <f>IF(G$184="passfeder","p_zulPF",IF(G$184="keilwelle_leicht","d",IF(G$184="keilwelle_mittel","d",IF(G$184="evolvente","d_a1"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G187" s="40"/>
-      <c r="H187" s="42" t="str">
+      <c r="G187" s="29"/>
+      <c r="H187" s="29" t="str">
         <f>IF(G$184="passfeder","MPa",IF(G$184="keilwelle_leicht","mm",IF(G$184="keilwelle_mittel","mm",IF(G$184="evolvente","mm"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I187" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J187" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K187" s="42" t="str">
+      <c r="I187" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J187" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K187" s="29" t="str">
         <f>IF(L$184="passfeder","p_zulPF",IF(L$184="keilwelle_leicht","d",IF(L$184="keilwelle_mittel","d",IF(L$184="evolvente","d_a1"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L187" s="40"/>
-      <c r="M187" s="42" t="str">
+      <c r="L187" s="29"/>
+      <c r="M187" s="29" t="str">
         <f>IF(L$184="passfeder","MPa",IF(L$184="keilwelle_leicht","mm",IF(L$184="keilwelle_mittel","mm",IF(L$184="evolvente","mm"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N187" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O187" s="71" t="s">
+      <c r="N187" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O187" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A188" s="42" t="str">
+      <c r="A188" s="29" t="str">
         <f>IF(B$184="passfeder","d_F",IF(B$184="keilwelle_leicht","l_N",IF(B$184="keilwelle_mittel","l_N",IF(B$184="evolvente","d_a2"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B188" s="40"/>
-      <c r="C188" s="42" t="str">
+      <c r="B188" s="29"/>
+      <c r="C188" s="29" t="str">
         <f>IF(B$184="passfeder","mm",IF(B$184="keilwelle_leicht","mm",IF(B$184="keilwelle_mittel","mm",IF(B$184="evolvente","mm"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D188" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E188" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F188" s="42" t="str">
+      <c r="D188" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E188" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F188" s="29" t="str">
         <f>IF(G$184="passfeder","d_F",IF(G$184="keilwelle_leicht","l_N",IF(G$184="keilwelle_mittel","l_N",IF(G$184="evolvente","d_a2"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G188" s="40"/>
-      <c r="H188" s="42" t="str">
+      <c r="G188" s="29"/>
+      <c r="H188" s="29" t="str">
         <f>IF(G$184="passfeder","mm",IF(G$184="keilwelle_leicht","mm",IF(G$184="keilwelle_mittel","mm",IF(G$184="evolvente","mm"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I188" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="J188" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="K188" s="42" t="str">
+      <c r="I188" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="J188" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="K188" s="29" t="str">
         <f>IF(L$184="passfeder","d_F",IF(L$184="keilwelle_leicht","l_N",IF(L$184="keilwelle_mittel","l_N",IF(L$184="evolvente","d_a2"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L188" s="40"/>
-      <c r="M188" s="42" t="str">
+      <c r="L188" s="29"/>
+      <c r="M188" s="29" t="str">
         <f>IF(L$184="passfeder","mm",IF(L$184="keilwelle_leicht","mm",IF(L$184="keilwelle_mittel","mm",IF(L$184="evolvente","mm"," "))))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N188" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O188" s="71" t="s">
+      <c r="N188" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O188" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A189" s="42" t="str">
+      <c r="A189" s="29" t="str">
         <f>IF(B$184="passfeder","L_1",IF(B$184="evolvente","l_N"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B189" s="40"/>
-      <c r="C189" s="42" t="str">
+      <c r="B189" s="29"/>
+      <c r="C189" s="29" t="str">
         <f>IF(B$184="passfeder","mm",IF(B$184="evolvente","mm"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D189" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E189" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="I189" s="110"/>
-      <c r="J189" s="110"/>
-      <c r="K189" s="76" t="str">
+      <c r="D189" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E189" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I189" s="74"/>
+      <c r="J189" s="74"/>
+      <c r="K189" s="38" t="str">
         <f>IF(L$184="passfeder","L_1",IF(L$184="evolvente","l_N"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L189" s="40"/>
-      <c r="M189" s="42" t="str">
+      <c r="L189" s="29"/>
+      <c r="M189" s="29" t="str">
         <f>IF(L$184="passfeder","mm",IF(L$184="evolvente","mm"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N189" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O189" s="71" t="s">
+      <c r="N189" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O189" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A190" s="33" t="str">
+      <c r="A190" s="23" t="str">
         <f>IF(B$184="evolvente","z"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B190" s="106"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="E190" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="I190" s="59"/>
-      <c r="J190" s="59"/>
-      <c r="K190" s="32" t="str">
+      <c r="B190" s="23"/>
+      <c r="C190" s="23"/>
+      <c r="D190" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E190" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I190" s="41"/>
+      <c r="J190" s="41"/>
+      <c r="K190" s="22" t="str">
         <f>IF(L$184="evolvente","z"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L190" s="106"/>
-      <c r="M190" s="33"/>
-      <c r="N190" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="O190" s="85" t="s">
+      <c r="L190" s="23"/>
+      <c r="M190" s="23"/>
+      <c r="N190" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="O190" s="61" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="D191" s="59"/>
-      <c r="E191" s="59"/>
+      <c r="D191" s="41"/>
+      <c r="E191" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="K183:M183"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="K148:M148"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="A67:O67"/>
@@ -8768,465 +8166,136 @@
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="F105:G105"/>
     <mergeCell ref="K105:L105"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="K183:M183"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="K148:M148"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3 B15:B16 L15 B50 G50 L50 B186:B188 G186:G188 L186:L188 B161:B180 B38:B40 G38:G40 L38:L40 B52:B54 G52:G54 L52:L54 L88:L90 L72:L84 B72:B90 B92:B96 L92:L96">
-    <cfRule type="expression" dxfId="90" priority="143">
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="expression" dxfId="22" priority="142">
       <formula>ISBLANK(B3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="89" priority="145">
+  <conditionalFormatting sqref="B9:B12">
+    <cfRule type="containsText" dxfId="21" priority="81" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B16">
+    <cfRule type="expression" dxfId="20" priority="143">
+      <formula>ISBLANK(B15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B47">
+    <cfRule type="expression" dxfId="19" priority="8">
+      <formula>ISBLANK(B36)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B61">
+    <cfRule type="expression" dxfId="18" priority="5">
+      <formula>ISBLANK(B50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:B99">
+    <cfRule type="expression" dxfId="17" priority="2">
+      <formula>ISBLANK(B69)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:B141">
+    <cfRule type="expression" dxfId="16" priority="74">
+      <formula>ISBLANK(B106)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B149:B156">
+    <cfRule type="expression" dxfId="15" priority="24">
+      <formula>ISBLANK(B149)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:B180">
+    <cfRule type="expression" dxfId="14" priority="52">
+      <formula>ISBLANK(B160)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B184:B190">
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>ISBLANK(B184)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="expression" dxfId="12" priority="144">
       <formula>ISBLANK(G3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="88" priority="144">
-      <formula>ISBLANK(G4)</formula>
+  <conditionalFormatting sqref="G15:G17">
+    <cfRule type="expression" dxfId="11" priority="102">
+      <formula>ISBLANK(G15)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="87" priority="142">
-      <formula>ISBLANK(B4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="86" priority="118">
-      <formula>ISBLANK(B36)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="85" priority="117">
+  <conditionalFormatting sqref="G36:G47">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>ISBLANK(G36)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47 B44:B45">
-    <cfRule type="expression" dxfId="84" priority="115">
-      <formula>ISBLANK(B44)</formula>
+  <conditionalFormatting sqref="G50:G61">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>ISBLANK(G50)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B71">
-    <cfRule type="expression" dxfId="83" priority="106">
-      <formula>ISBLANK(B70)</formula>
+  <conditionalFormatting sqref="G106:G141">
+    <cfRule type="expression" dxfId="8" priority="63">
+      <formula>ISBLANK(G106)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:L71">
-    <cfRule type="expression" dxfId="82" priority="104">
-      <formula>ISBLANK(L70)</formula>
+  <conditionalFormatting sqref="G184:G188">
+    <cfRule type="expression" dxfId="7" priority="44">
+      <formula>ISBLANK(G184)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G17">
-    <cfRule type="expression" dxfId="81" priority="102">
-      <formula>ISBLANK(G15)</formula>
+  <conditionalFormatting sqref="L15:L16">
+    <cfRule type="expression" dxfId="6" priority="101">
+      <formula>ISBLANK(L15)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="80" priority="101">
-      <formula>ISBLANK(L16)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
-    <cfRule type="expression" dxfId="79" priority="100">
+  <conditionalFormatting sqref="L36:L47">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>ISBLANK(L36)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47 G44:G45">
-    <cfRule type="expression" dxfId="78" priority="99">
-      <formula>ISBLANK(G44)</formula>
+  <conditionalFormatting sqref="L50:L61">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>ISBLANK(L50)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47 L44:L45">
-    <cfRule type="expression" dxfId="77" priority="98">
-      <formula>ISBLANK(L44)</formula>
+  <conditionalFormatting sqref="L69:L99">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>ISBLANK(L69)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B59">
-    <cfRule type="expression" dxfId="76" priority="97">
-      <formula>ISBLANK(B58)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58:G59">
-    <cfRule type="expression" dxfId="75" priority="96">
-      <formula>ISBLANK(G58)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58:L59">
-    <cfRule type="expression" dxfId="74" priority="95">
-      <formula>ISBLANK(L58)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="73" priority="86">
-      <formula>ISBLANK(G37)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="72" priority="85">
-      <formula>ISBLANK(L37)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="71" priority="84">
-      <formula>ISBLANK(B51)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="70" priority="83">
-      <formula>ISBLANK(G51)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="expression" dxfId="69" priority="82">
-      <formula>ISBLANK(L51)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B12">
-    <cfRule type="containsText" dxfId="68" priority="81" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",B9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106:B124">
-    <cfRule type="expression" dxfId="67" priority="80">
-      <formula>ISBLANK(B106)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125:B139">
-    <cfRule type="expression" dxfId="66" priority="79">
-      <formula>ISBLANK(B125)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G106:G113 G118:G119 G115:G116 G121:G122 G124">
-    <cfRule type="expression" dxfId="65" priority="78">
-      <formula>ISBLANK(G106)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
-    <cfRule type="expression" dxfId="64" priority="77">
-      <formula>ISBLANK(G125)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L106:L113 L118:L119 L115:L116 L121:L122 L124">
-    <cfRule type="expression" dxfId="63" priority="76">
+  <conditionalFormatting sqref="L106:L141">
+    <cfRule type="expression" dxfId="2" priority="62">
       <formula>ISBLANK(L106)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L125">
-    <cfRule type="expression" dxfId="62" priority="75">
-      <formula>ISBLANK(L125)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B140:B141">
-    <cfRule type="expression" dxfId="61" priority="74">
-      <formula>ISBLANK(B140)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G140:G141">
-    <cfRule type="expression" dxfId="60" priority="73">
-      <formula>ISBLANK(G140)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L140:L141">
-    <cfRule type="expression" dxfId="59" priority="72">
-      <formula>ISBLANK(L140)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
-    <cfRule type="expression" dxfId="58" priority="71">
-      <formula>ISBLANK(G117)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L117">
-    <cfRule type="expression" dxfId="57" priority="70">
-      <formula>ISBLANK(L117)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G114">
-    <cfRule type="expression" dxfId="56" priority="69">
-      <formula>ISBLANK(G114)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L114">
-    <cfRule type="expression" dxfId="55" priority="68">
-      <formula>ISBLANK(L114)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G120">
-    <cfRule type="expression" dxfId="54" priority="67">
-      <formula>ISBLANK(G120)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L120">
-    <cfRule type="expression" dxfId="53" priority="66">
-      <formula>ISBLANK(L120)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123">
-    <cfRule type="expression" dxfId="52" priority="65">
-      <formula>ISBLANK(G123)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L123">
-    <cfRule type="expression" dxfId="51" priority="64">
-      <formula>ISBLANK(L123)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G126:G139">
-    <cfRule type="expression" dxfId="50" priority="63">
-      <formula>ISBLANK(G126)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L126:L139">
-    <cfRule type="expression" dxfId="49" priority="62">
-      <formula>ISBLANK(L126)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="expression" dxfId="48" priority="61">
-      <formula>ISBLANK(B69)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69">
-    <cfRule type="expression" dxfId="47" priority="60">
-      <formula>ISBLANK(L69)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97:B99">
-    <cfRule type="expression" dxfId="46" priority="59">
-      <formula>ISBLANK(B97)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L97:L98">
-    <cfRule type="expression" dxfId="45" priority="57">
-      <formula>ISBLANK(L97)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="expression" dxfId="44" priority="52">
-      <formula>ISBLANK(B160)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151:B154">
-    <cfRule type="expression" dxfId="43" priority="56">
-      <formula>ISBLANK(B151)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B149:B150">
-    <cfRule type="expression" dxfId="42" priority="55">
-      <formula>ISBLANK(B149)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="41" priority="54">
-      <formula>ISBLANK(B156)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L156">
-    <cfRule type="expression" dxfId="40" priority="49">
-      <formula>ISBLANK(L156)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L151:L154">
-    <cfRule type="expression" dxfId="39" priority="51">
-      <formula>ISBLANK(L151)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149:L150">
-    <cfRule type="expression" dxfId="38" priority="50">
+  <conditionalFormatting sqref="L149:L156">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>ISBLANK(L149)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B184:B185">
-    <cfRule type="expression" dxfId="37" priority="47">
-      <formula>ISBLANK(B184)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G184:G185">
-    <cfRule type="expression" dxfId="36" priority="44">
-      <formula>ISBLANK(G184)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L184:L185">
-    <cfRule type="expression" dxfId="35" priority="41">
+  <conditionalFormatting sqref="L184:L190">
+    <cfRule type="expression" dxfId="0" priority="19">
       <formula>ISBLANK(L184)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>ISBLANK(G46)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
-    <cfRule type="expression" dxfId="33" priority="37">
-      <formula>ISBLANK(L46)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="32" priority="36">
-      <formula>ISBLANK(B46)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="31" priority="35">
-      <formula>ISBLANK(B61)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="expression" dxfId="30" priority="34">
-      <formula>ISBLANK(G61)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L61">
-    <cfRule type="expression" dxfId="29" priority="33">
-      <formula>ISBLANK(L61)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>ISBLANK(G60)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60">
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>ISBLANK(L60)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>ISBLANK(B60)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L99">
-    <cfRule type="expression" dxfId="25" priority="28">
-      <formula>ISBLANK(L99)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L85:L87">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>ISBLANK(L85)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>ISBLANK(B155)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L155">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>ISBLANK(L155)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>ISBLANK(B190)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L190">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>ISBLANK(L190)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B189">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>ISBLANK(B189)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L189">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>ISBLANK(L189)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>ISBLANK(B42)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>ISBLANK(G42)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>ISBLANK(L42)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>ISBLANK(B41)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>ISBLANK(G41)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>ISBLANK(L41)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56 G56 L56">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>ISBLANK(B56)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>ISBLANK(B55)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>ISBLANK(G55)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK(L55)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK(B43)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK(G43)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK(L43)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK(B57)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK(G57)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK(L57)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK(B91)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L91">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK(L91)</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{7502B76F-37EE-466E-ADBE-3CBE1765B059}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="8">
